--- a/Water Vendors/NAWASSCO OPERATED WATER KIOSKS.xlsx
+++ b/Water Vendors/NAWASSCO OPERATED WATER KIOSKS.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUSTOMER IDENTIFICATION\CIS FULL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUSTOMER IDENTIFICATION\CIS FULL\Water Vendors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500C4A5C-CFAF-4A40-A472-44C7654C394A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{576ECADF-ACE4-4469-916C-E133E836EDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="NAWASSCO OPERATED WATER KIOSKS" sheetId="1" r:id="rId1"/>
+    <sheet name="NAWASSCO water vendors uneited" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="195">
+  <si>
+    <t>zone_name_from_coordinates</t>
+  </si>
   <si>
     <t>c_acc_number</t>
   </si>
@@ -37,7 +40,7 @@
     <t>isitanawasscowaterkioskoraprivate</t>
   </si>
   <si>
-    <t>whoistherespondent</t>
+    <t>whoistherespondent215</t>
   </si>
   <si>
     <t>whooperatesthekiosk</t>
@@ -196,12 +199,51 @@
     <t>Directly</t>
   </si>
   <si>
+    <t>NEWACCOUNT-36.108097583055496</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Thursday,Wednesday,Monday,Friday,Saturday,Tuesday</t>
+  </si>
+  <si>
+    <t>mawanga</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>Pays direct to NAWASSCO</t>
+  </si>
+  <si>
+    <t>M-Pesa</t>
+  </si>
+  <si>
+    <t>USSD,Walk-in</t>
+  </si>
+  <si>
+    <t>Social Media (Website,Facebook, Twitter)</t>
+  </si>
+  <si>
+    <t>Always</t>
+  </si>
+  <si>
+    <t>Very pleased</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Western Zone</t>
+  </si>
+  <si>
     <t>NEWACCOUNT-36.057023629546165</t>
   </si>
   <si>
-    <t>Individual</t>
-  </si>
-  <si>
     <t>more than 500</t>
   </si>
   <si>
@@ -217,21 +259,12 @@
     <t>Satisfied</t>
   </si>
   <si>
-    <t>Pays direct to NAWASSCO</t>
-  </si>
-  <si>
-    <t>M-Pesa</t>
-  </si>
-  <si>
     <t>Walk-in,Calling (Toll Free, Technical Hotline, Landline, Staff)</t>
   </si>
   <si>
     <t>By calling</t>
   </si>
   <si>
-    <t>Always</t>
-  </si>
-  <si>
     <t>Moderately pleased</t>
   </si>
   <si>
@@ -241,6 +274,9 @@
     <t>After the meter</t>
   </si>
   <si>
+    <t>Southern Zone</t>
+  </si>
+  <si>
     <t>NEWACCOUNT-36.078576520085335</t>
   </si>
   <si>
@@ -268,33 +304,6 @@
     <t>increase waterpressure</t>
   </si>
   <si>
-    <t>NEWACCOUNT-36.108097583055496</t>
-  </si>
-  <si>
-    <t>Thursday,Wednesday,Monday,Friday,Saturday,Tuesday</t>
-  </si>
-  <si>
-    <t>mawanga</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Very satisfied</t>
-  </si>
-  <si>
-    <t>USSD,Walk-in</t>
-  </si>
-  <si>
-    <t>Social Media (Website,Facebook, Twitter)</t>
-  </si>
-  <si>
-    <t>Very pleased</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>NEWACCOUNT-36.11934408545494</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t>Functional</t>
+  </si>
+  <si>
+    <t>Northern Zone</t>
   </si>
   <si>
     <t>milimani</t>
@@ -1434,7 +1446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:AT30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1443,54 +1455,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="67.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="29" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="62.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="61" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="58" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="30" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="67.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="62.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="61" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="58" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="64.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1626,19 +1639,19 @@
       <c r="AS1" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B2">
         <v>4166077</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>41698</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>46</v>
@@ -1646,38 +1659,38 @@
       <c r="F2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" t="s">
         <v>48</v>
       </c>
       <c r="I2" t="s">
         <v>49</v>
       </c>
-      <c r="L2">
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S2">
-        <v>36.107867249999998</v>
+      <c r="R2" t="s">
+        <v>51</v>
       </c>
       <c r="T2">
-        <v>-0.26639168099999999</v>
-      </c>
-      <c r="V2" t="s">
-        <v>51</v>
+        <v>36.1078672483563</v>
+      </c>
+      <c r="U2">
+        <v>-0.26639168099807897</v>
       </c>
       <c r="W2" t="s">
         <v>52</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="X2" t="s">
         <v>53</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ2" t="s">
         <v>54</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>50</v>
       </c>
       <c r="AK2" t="s">
         <v>55</v>
@@ -1686,27 +1699,27 @@
         <v>56</v>
       </c>
       <c r="AM2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS2">
+        <v>55</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT2">
         <v>19851</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>46</v>
@@ -1715,114 +1728,117 @@
         <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
         <v>49</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
       </c>
       <c r="L3">
+        <v>80</v>
+      </c>
+      <c r="M3">
         <v>6</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="S3">
-        <v>36.057023630000003</v>
-      </c>
       <c r="T3">
-        <v>-0.30058473299999999</v>
+        <v>36.108097583055397</v>
+      </c>
+      <c r="U3">
+        <v>-0.26600544706852403</v>
+      </c>
+      <c r="V3" t="s">
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" t="s">
         <v>63</v>
       </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AT3">
+        <v>54723</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="AQ3">
-        <v>759695421</v>
-      </c>
-      <c r="AS3">
-        <v>36967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-1</v>
       </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
         <v>46</v>
@@ -1831,108 +1847,117 @@
         <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I4" t="s">
         <v>49</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>76</v>
       </c>
-      <c r="S4">
-        <v>36.078576519999999</v>
-      </c>
       <c r="T4">
-        <v>-0.29454582099999999</v>
-      </c>
-      <c r="W4" t="s">
-        <v>52</v>
+        <v>36.057023629546102</v>
+      </c>
+      <c r="U4">
+        <v>-0.30058473302467698</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC4" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" t="s">
-        <v>77</v>
-      </c>
       <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s">
         <v>54</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>79</v>
       </c>
       <c r="AH4" t="s">
         <v>80</v>
       </c>
       <c r="AI4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AJ4" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK4" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AL4" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AM4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4">
-        <v>45828</v>
+        <v>50</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4">
+        <v>759695421</v>
+      </c>
+      <c r="AT4">
+        <v>36967</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5">
         <v>-1</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
         <v>46</v>
@@ -1941,114 +1966,111 @@
         <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
+        <v>86</v>
+      </c>
+      <c r="J5" t="s">
+        <v>50</v>
       </c>
       <c r="K5">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>6</v>
-      </c>
-      <c r="M5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T5">
+        <v>36.078576520085299</v>
+      </c>
+      <c r="U5">
+        <v>-0.29454582087327802</v>
+      </c>
+      <c r="X5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>83</v>
       </c>
-      <c r="R5" t="s">
+      <c r="AT5">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>84</v>
       </c>
-      <c r="S5">
-        <v>36.108097579999999</v>
-      </c>
-      <c r="T5">
-        <v>-0.26600544700000001</v>
-      </c>
-      <c r="U5" t="s">
-        <v>85</v>
-      </c>
-      <c r="V5" t="s">
-        <v>85</v>
-      </c>
-      <c r="W5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AS5">
-        <v>54723</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6">
         <v>-1</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
         <v>46</v>
@@ -2057,117 +2079,120 @@
         <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6">
         <v>2</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N6">
+      <c r="M6">
         <v>5</v>
       </c>
+      <c r="N6" t="s">
+        <v>96</v>
+      </c>
       <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
         <v>6</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>11</v>
       </c>
-      <c r="R6" t="s">
-        <v>94</v>
-      </c>
-      <c r="S6">
-        <v>36.119344089999998</v>
+      <c r="S6" t="s">
+        <v>97</v>
       </c>
       <c r="T6">
-        <v>-0.29274977000000002</v>
-      </c>
-      <c r="V6" t="s">
-        <v>95</v>
+        <v>36.119344085454898</v>
+      </c>
+      <c r="U6">
+        <v>-0.29274977025030702</v>
       </c>
       <c r="W6" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>86</v>
+        <v>98</v>
+      </c>
+      <c r="X6" t="s">
+        <v>53</v>
       </c>
       <c r="Z6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>66</v>
       </c>
-      <c r="AD6" t="s">
-        <v>54</v>
-      </c>
       <c r="AE6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>99</v>
       </c>
       <c r="AH6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI6" t="s">
         <v>69</v>
       </c>
-      <c r="AI6" t="s">
-        <v>89</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK6" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL6" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ6">
+        <v>58</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR6">
         <v>728468051</v>
       </c>
-      <c r="AS6">
+      <c r="AT6">
         <v>57770</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
         <v>-1</v>
       </c>
-      <c r="C7" t="s">
-        <v>45</v>
-      </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>46</v>
@@ -2176,117 +2201,120 @@
         <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>100</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
-        <v>61</v>
-      </c>
-      <c r="R7" t="s">
-        <v>100</v>
-      </c>
-      <c r="S7">
-        <v>36.049033999999999</v>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s">
+        <v>103</v>
       </c>
       <c r="T7">
-        <v>-0.30000873700000003</v>
+        <v>36.049033999442997</v>
       </c>
       <c r="U7">
+        <v>-0.30000873655007898</v>
+      </c>
+      <c r="V7">
         <v>1195155940</v>
       </c>
-      <c r="W7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>86</v>
+      <c r="X7" t="s">
+        <v>53</v>
       </c>
       <c r="Z7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="s">
         <v>65</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" t="s">
-        <v>54</v>
-      </c>
       <c r="AE7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL7" t="s">
         <v>101</v>
       </c>
-      <c r="AG7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>103</v>
-      </c>
       <c r="AM7" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="AN7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AQ7">
+        <v>50</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR7">
         <v>710958674</v>
       </c>
-      <c r="AR7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS7">
+      <c r="AS7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT7">
         <v>32883</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
         <v>2057012</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>8850</v>
       </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
         <v>46</v>
@@ -2295,233 +2323,236 @@
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8">
+        <v>36.075787022709797</v>
+      </c>
+      <c r="U8">
+        <v>-0.281600973261244</v>
+      </c>
+      <c r="V8">
+        <v>3503060</v>
+      </c>
+      <c r="X8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA8" t="s">
         <v>54</v>
       </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-      <c r="K8">
-        <v>50</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="R8" t="s">
-        <v>106</v>
-      </c>
-      <c r="S8">
-        <v>36.07578702</v>
-      </c>
-      <c r="T8">
-        <v>-0.28160097299999998</v>
-      </c>
-      <c r="U8">
-        <v>3503060</v>
-      </c>
-      <c r="W8" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>49</v>
-      </c>
       <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" t="s">
         <v>65</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>66</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG8" t="s">
         <v>54</v>
       </c>
-      <c r="AE8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>108</v>
-      </c>
       <c r="AH8" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="AI8" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AJ8" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AL8" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AM8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO8" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS8">
+        <v>50</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT8">
         <v>8428</v>
       </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
         <v>3053387</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>77680</v>
       </c>
-      <c r="C9" t="s">
-        <v>45</v>
-      </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
         <v>49</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9">
         <v>3</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>6</v>
       </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9">
-        <v>8</v>
+      <c r="N9" t="s">
+        <v>114</v>
       </c>
       <c r="O9">
         <v>8</v>
       </c>
       <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
         <v>16</v>
       </c>
-      <c r="R9" t="s">
-        <v>111</v>
-      </c>
-      <c r="S9">
-        <v>36.091531590000002</v>
+      <c r="S9" t="s">
+        <v>115</v>
       </c>
       <c r="T9">
-        <v>-0.29284465199999998</v>
+        <v>36.091531589627202</v>
       </c>
       <c r="U9">
+        <v>-0.29284465215528799</v>
+      </c>
+      <c r="V9">
         <v>3053387</v>
       </c>
-      <c r="V9" t="s">
-        <v>112</v>
-      </c>
       <c r="W9" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>64</v>
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>53</v>
       </c>
       <c r="Z9" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" t="s">
         <v>65</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>66</v>
       </c>
-      <c r="AD9" t="s">
-        <v>54</v>
-      </c>
       <c r="AE9" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH9" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AI9" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="AJ9" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="s">
-        <v>56</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ9">
+        <v>58</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR9">
         <v>757897392</v>
       </c>
-      <c r="AS9">
+      <c r="AT9">
         <v>12119</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>3055004</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>70635</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
@@ -2530,117 +2561,120 @@
         <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>117</v>
-      </c>
       <c r="R10" t="s">
-        <v>118</v>
-      </c>
-      <c r="S10">
-        <v>36.123487760000003</v>
+        <v>121</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
       </c>
       <c r="T10">
-        <v>-0.214902441</v>
+        <v>36.123487763106802</v>
       </c>
       <c r="U10">
+        <v>-0.214902440980592</v>
+      </c>
+      <c r="V10">
         <v>10401036321</v>
       </c>
-      <c r="W10" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y10" t="s">
+      <c r="X10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI10" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="AL10" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AM10" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="AN10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ10">
+        <v>50</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR10">
         <v>712831150</v>
       </c>
-      <c r="AR10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS10">
+      <c r="AS10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT10">
         <v>12475</v>
       </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11">
         <v>3071252</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>76803</v>
       </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>46</v>
@@ -2649,117 +2683,120 @@
         <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11">
+        <v>86</v>
+      </c>
+      <c r="J11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
+      <c r="N11" t="s">
+        <v>126</v>
       </c>
       <c r="O11">
         <v>6</v>
       </c>
       <c r="P11">
+        <v>6</v>
+      </c>
+      <c r="Q11">
         <v>12</v>
       </c>
-      <c r="R11" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11">
-        <v>36.119264289999997</v>
+      <c r="S11" t="s">
+        <v>97</v>
       </c>
       <c r="T11">
-        <v>-0.29558717499999998</v>
+        <v>36.119264289736698</v>
       </c>
       <c r="U11">
+        <v>-0.295587174714115</v>
+      </c>
+      <c r="V11">
         <v>3071252</v>
       </c>
-      <c r="W11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>86</v>
+      <c r="X11" t="s">
+        <v>53</v>
       </c>
       <c r="Z11" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="s">
         <v>65</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>66</v>
       </c>
-      <c r="AD11" t="s">
-        <v>54</v>
-      </c>
       <c r="AE11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>99</v>
       </c>
       <c r="AH11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI11" t="s">
         <v>69</v>
       </c>
-      <c r="AI11" t="s">
-        <v>89</v>
-      </c>
       <c r="AJ11" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK11" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL11" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS11">
+        <v>50</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT11">
         <v>13145</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
         <v>3076136</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>77464</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
         <v>46</v>
@@ -2768,123 +2805,126 @@
         <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12">
+        <v>86</v>
+      </c>
+      <c r="J12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>20</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="M12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12">
+      <c r="N12" t="s">
+        <v>127</v>
+      </c>
+      <c r="O12">
         <v>5</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>6</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>11</v>
       </c>
-      <c r="R12" t="s">
-        <v>94</v>
-      </c>
-      <c r="S12">
-        <v>36.123191380000002</v>
+      <c r="S12" t="s">
+        <v>97</v>
       </c>
       <c r="T12">
-        <v>-0.29555431799999998</v>
+        <v>36.123191379010599</v>
       </c>
       <c r="U12">
+        <v>-0.29555431809087002</v>
+      </c>
+      <c r="V12">
         <v>3076136</v>
       </c>
-      <c r="V12" t="s">
-        <v>124</v>
-      </c>
       <c r="W12" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>86</v>
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>53</v>
       </c>
       <c r="Z12" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC12" t="s">
         <v>65</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>66</v>
       </c>
-      <c r="AD12" t="s">
-        <v>54</v>
-      </c>
       <c r="AE12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>97</v>
+        <v>55</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>111</v>
       </c>
       <c r="AH12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI12" t="s">
         <v>69</v>
       </c>
-      <c r="AI12" t="s">
-        <v>89</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK12" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AM12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO12" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP12" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ12">
+        <v>50</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR12">
         <v>723346571</v>
       </c>
-      <c r="AS12">
+      <c r="AT12">
         <v>13226</v>
       </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
         <v>3090150</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>76943</v>
       </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
         <v>46</v>
@@ -2893,126 +2933,126 @@
         <v>47</v>
       </c>
       <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>170</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>129</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+      <c r="S13" t="s">
+        <v>130</v>
+      </c>
+      <c r="T13">
+        <v>36.129039935767601</v>
+      </c>
+      <c r="U13">
+        <v>-0.29890066408504201</v>
+      </c>
+      <c r="V13">
+        <v>3090150</v>
+      </c>
+      <c r="W13" t="s">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI13" t="s">
         <v>92</v>
       </c>
-      <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="K13">
-        <v>170</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>8</v>
-      </c>
-      <c r="P13">
-        <v>18</v>
-      </c>
-      <c r="R13" t="s">
-        <v>126</v>
-      </c>
-      <c r="S13">
-        <v>36.129039939999998</v>
-      </c>
-      <c r="T13">
-        <v>-0.29890066399999998</v>
-      </c>
-      <c r="U13">
-        <v>3090150</v>
-      </c>
-      <c r="V13" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" t="s">
-        <v>52</v>
-      </c>
-      <c r="X13" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ13" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK13" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="AM13" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AN13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO13" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP13" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS13">
+        <v>50</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT13">
         <v>13467</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>4070176</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>63507</v>
       </c>
-      <c r="C14" t="s">
-        <v>45</v>
-      </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
         <v>46</v>
@@ -3021,117 +3061,117 @@
         <v>47</v>
       </c>
       <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>135</v>
+      </c>
+      <c r="S14" t="s">
+        <v>136</v>
+      </c>
+      <c r="T14">
+        <v>36.124215312302098</v>
+      </c>
+      <c r="U14">
+        <v>-0.187215173889721</v>
+      </c>
+      <c r="V14">
+        <v>55003220</v>
+      </c>
+      <c r="X14" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI14" t="s">
         <v>92</v>
       </c>
-      <c r="H14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14" t="s">
-        <v>131</v>
-      </c>
-      <c r="R14" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14">
-        <v>36.124215309999997</v>
-      </c>
-      <c r="T14">
-        <v>-0.18721517400000001</v>
-      </c>
-      <c r="U14">
-        <v>55003220</v>
-      </c>
-      <c r="W14" t="s">
-        <v>52</v>
-      </c>
-      <c r="X14" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>120</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>70</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="s">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="AM14" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="AN14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ14">
+        <v>50</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR14">
         <v>720131720</v>
       </c>
-      <c r="AR14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS14">
+      <c r="AS14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT14">
         <v>16078</v>
       </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>4178042</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>72690</v>
       </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -3140,215 +3180,221 @@
         <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
         <v>49</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>20</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="M15" t="s">
-        <v>136</v>
-      </c>
-      <c r="N15">
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>6</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>9</v>
       </c>
-      <c r="R15" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15">
-        <v>36.110899490000001</v>
+      <c r="S15" t="s">
+        <v>62</v>
       </c>
       <c r="T15">
-        <v>-0.26576170399999999</v>
+        <v>36.1108994856476</v>
       </c>
       <c r="U15">
+        <v>-0.26576170394878601</v>
+      </c>
+      <c r="V15">
         <v>4178042</v>
       </c>
-      <c r="V15" t="s">
-        <v>137</v>
-      </c>
       <c r="W15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+      <c r="X15" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT15">
+        <v>20275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>5007174</v>
+      </c>
+      <c r="C16">
+        <v>32946</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>113</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" t="s">
         <v>86</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="J16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>70</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="S16" t="s">
+        <v>142</v>
+      </c>
+      <c r="T16">
+        <v>36.060890704393302</v>
+      </c>
+      <c r="U16">
+        <v>-0.316725697336112</v>
+      </c>
+      <c r="W16">
+        <v>16032887</v>
+      </c>
+      <c r="X16" t="s">
         <v>53</v>
       </c>
-      <c r="AA15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="Z16" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC16" t="s">
         <v>65</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD16" t="s">
         <v>66</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG16" t="s">
         <v>54</v>
       </c>
-      <c r="AL15" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN15" t="s">
+      <c r="AH16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM16" t="s">
         <v>57</v>
       </c>
-      <c r="AO15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS15">
-        <v>20275</v>
+      <c r="AN16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR16">
+        <v>7044426184</v>
+      </c>
+      <c r="AT16">
+        <v>20978</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5007174</v>
-      </c>
-      <c r="B16">
-        <v>32946</v>
-      </c>
-      <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" t="s">
-        <v>109</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-      <c r="H16" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>70</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>138</v>
-      </c>
-      <c r="S16">
-        <v>36.060890700000002</v>
-      </c>
-      <c r="T16">
-        <v>-0.31672569699999997</v>
-      </c>
-      <c r="V16">
-        <v>16032887</v>
-      </c>
-      <c r="W16" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP16" t="s">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>72</v>
       </c>
-      <c r="AQ16">
-        <v>7044426184</v>
-      </c>
-      <c r="AS16">
-        <v>20978</v>
-      </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="B17">
         <v>5021255</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>76876</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
         <v>46</v>
@@ -3357,230 +3403,236 @@
         <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
         <v>49</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17">
         <v>3</v>
       </c>
-      <c r="K17">
-        <v>50</v>
-      </c>
       <c r="L17">
+        <v>50</v>
+      </c>
+      <c r="M17">
         <v>6</v>
       </c>
-      <c r="M17" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17">
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
         <v>12</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>6</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>18</v>
       </c>
-      <c r="R17" t="s">
-        <v>141</v>
-      </c>
-      <c r="S17">
-        <v>36.062712589999997</v>
+      <c r="S17" t="s">
+        <v>145</v>
       </c>
       <c r="T17">
-        <v>-0.30591722500000001</v>
+        <v>36.062712594866703</v>
       </c>
       <c r="U17">
+        <v>-0.30591722513014902</v>
+      </c>
+      <c r="V17">
         <v>5021255</v>
       </c>
-      <c r="W17" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>64</v>
+      <c r="X17" t="s">
+        <v>53</v>
       </c>
       <c r="Z17" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC17" t="s">
         <v>65</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>66</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG17" t="s">
         <v>54</v>
       </c>
-      <c r="AE17" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>79</v>
-      </c>
       <c r="AH17" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AI17" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AJ17" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="AM17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO17" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP17" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT17">
+        <v>22254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>72</v>
       </c>
-      <c r="AS17">
-        <v>22254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="B18">
         <v>5032276</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>52072</v>
       </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
         <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I18" t="s">
         <v>49</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
         <v>3</v>
       </c>
-      <c r="K18">
-        <v>50</v>
-      </c>
       <c r="L18">
+        <v>50</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="M18" t="s">
-        <v>142</v>
-      </c>
-      <c r="R18" t="s">
-        <v>62</v>
-      </c>
-      <c r="S18">
-        <v>36.061393950000003</v>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="S18" t="s">
+        <v>76</v>
       </c>
       <c r="T18">
-        <v>-0.30948384099999998</v>
-      </c>
-      <c r="W18" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>86</v>
+        <v>36.061393953859799</v>
+      </c>
+      <c r="U18">
+        <v>-0.30948384113400401</v>
+      </c>
+      <c r="X18" t="s">
+        <v>53</v>
       </c>
       <c r="Z18" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA18" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB18" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC18" t="s">
         <v>65</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>66</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG18" t="s">
         <v>54</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>68</v>
       </c>
       <c r="AH18" t="s">
         <v>80</v>
       </c>
       <c r="AI18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ18" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK18" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AM18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS18">
+        <v>50</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT18">
         <v>23364</v>
       </c>
     </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19">
         <v>5036360</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>76770</v>
       </c>
-      <c r="C19" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E19" t="s">
         <v>46</v>
@@ -3589,248 +3641,254 @@
         <v>47</v>
       </c>
       <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>148</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>6</v>
+      </c>
+      <c r="Q19">
+        <v>10</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19">
+        <v>36.053822748362997</v>
+      </c>
+      <c r="U19">
+        <v>-0.30953010856444801</v>
+      </c>
+      <c r="V19">
+        <v>5036360</v>
+      </c>
+      <c r="X19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI19" t="s">
         <v>92</v>
       </c>
-      <c r="H19" t="s">
-        <v>74</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="AJ19" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>151</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR19">
+        <v>729304599</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT19">
+        <v>24199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>5063201</v>
+      </c>
+      <c r="C20">
+        <v>13287</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" t="s">
         <v>49</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19">
-        <v>2</v>
-      </c>
-      <c r="M19" t="s">
-        <v>144</v>
-      </c>
-      <c r="N19">
-        <v>4</v>
-      </c>
-      <c r="O19">
+      <c r="J20" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="P19">
-        <v>10</v>
-      </c>
-      <c r="R19" t="s">
-        <v>62</v>
-      </c>
-      <c r="S19">
-        <v>36.053822750000002</v>
-      </c>
-      <c r="T19">
-        <v>-0.309530109</v>
-      </c>
-      <c r="U19">
-        <v>5036360</v>
-      </c>
-      <c r="W19" t="s">
-        <v>52</v>
-      </c>
-      <c r="X19" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z19" t="s">
+      <c r="N20" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" t="s">
+        <v>153</v>
+      </c>
+      <c r="T20">
+        <v>36.053454279899597</v>
+      </c>
+      <c r="U20">
+        <v>-0.293917856967915</v>
+      </c>
+      <c r="V20">
+        <v>5504010</v>
+      </c>
+      <c r="X20" t="s">
         <v>53</v>
       </c>
-      <c r="AA19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="Y20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC20" t="s">
         <v>65</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD20" t="s">
         <v>66</v>
       </c>
-      <c r="AD19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI19" t="s">
+      <c r="AE20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>70</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP19" t="s">
+      <c r="AK20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>154</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR20">
+        <v>722544982</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT20">
+        <v>26260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>72</v>
       </c>
-      <c r="AQ19">
-        <v>729304599</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS19">
-        <v>24199</v>
-      </c>
-    </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5063201</v>
-      </c>
-      <c r="B20">
-        <v>13287</v>
-      </c>
-      <c r="C20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-      <c r="K20">
-        <v>500</v>
-      </c>
-      <c r="L20">
-        <v>6</v>
-      </c>
-      <c r="M20" t="s">
-        <v>148</v>
-      </c>
-      <c r="R20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S20">
-        <v>36.053454279999997</v>
-      </c>
-      <c r="T20">
-        <v>-0.293917857</v>
-      </c>
-      <c r="U20">
-        <v>5504010</v>
-      </c>
-      <c r="W20" t="s">
-        <v>52</v>
-      </c>
-      <c r="X20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ20">
-        <v>722544982</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS20">
-        <v>26260</v>
-      </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21">
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21">
         <v>-1</v>
       </c>
-      <c r="C21" t="s">
-        <v>45</v>
-      </c>
       <c r="D21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
         <v>46</v>
@@ -3839,90 +3897,93 @@
         <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21">
+        <v>86</v>
+      </c>
+      <c r="J21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
         <v>3</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>110</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>6</v>
       </c>
-      <c r="M21" t="s">
-        <v>148</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="N21" t="s">
         <v>152</v>
       </c>
-      <c r="S21">
-        <v>36.039805860000001</v>
+      <c r="S21" t="s">
+        <v>156</v>
       </c>
       <c r="T21">
-        <v>-0.30120733199999999</v>
-      </c>
-      <c r="W21" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>54</v>
+        <v>36.039805859327302</v>
+      </c>
+      <c r="U21">
+        <v>-0.30120733220664198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>64</v>
       </c>
       <c r="AB21" t="s">
-        <v>153</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>157</v>
       </c>
       <c r="AE21" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>138</v>
       </c>
       <c r="AH21" t="s">
         <v>80</v>
       </c>
       <c r="AI21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ21" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK21" t="s">
-        <v>154</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS21">
+        <v>55</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT21">
         <v>30576</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>155</v>
-      </c>
-      <c r="B22">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22">
         <v>-1</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>46</v>
@@ -3931,117 +3992,120 @@
         <v>47</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" t="s">
+        <v>55</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22" t="s">
+        <v>160</v>
+      </c>
+      <c r="S22" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22">
+        <v>36.043734624981802</v>
+      </c>
+      <c r="U22">
+        <v>-0.298954642806811</v>
+      </c>
+      <c r="V22">
+        <v>47517290</v>
+      </c>
+      <c r="X22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA22" t="s">
         <v>54</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22" t="s">
-        <v>156</v>
-      </c>
-      <c r="R22" t="s">
-        <v>100</v>
-      </c>
-      <c r="S22">
-        <v>36.043734620000002</v>
-      </c>
-      <c r="T22">
-        <v>-0.29895464300000002</v>
-      </c>
-      <c r="U22">
-        <v>47517290</v>
-      </c>
-      <c r="W22" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>49</v>
-      </c>
       <c r="AB22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC22" t="s">
         <v>65</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>66</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG22" t="s">
         <v>54</v>
       </c>
-      <c r="AE22" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>102</v>
-      </c>
       <c r="AH22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI22" t="s">
         <v>69</v>
       </c>
-      <c r="AI22" t="s">
-        <v>89</v>
-      </c>
       <c r="AJ22" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK22" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AM22" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="AN22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR22">
+        <v>702567128</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT22">
+        <v>31489</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>72</v>
       </c>
-      <c r="AQ22">
-        <v>702567128</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS22">
-        <v>31489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>157</v>
-      </c>
-      <c r="B23">
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23">
         <v>-1</v>
       </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>46</v>
@@ -4050,123 +4114,126 @@
         <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>500</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6</v>
       </c>
-      <c r="M23" t="s">
-        <v>158</v>
-      </c>
-      <c r="N23">
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23">
         <v>12</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>17</v>
       </c>
-      <c r="R23" t="s">
-        <v>159</v>
-      </c>
-      <c r="S23">
-        <v>36.05533887</v>
+      <c r="S23" t="s">
+        <v>163</v>
       </c>
       <c r="T23">
-        <v>-0.30495734299999999</v>
+        <v>36.055338867008601</v>
       </c>
       <c r="U23">
+        <v>-0.30495734321823698</v>
+      </c>
+      <c r="V23">
         <v>800720036</v>
       </c>
-      <c r="W23" t="s">
-        <v>52</v>
-      </c>
       <c r="X23" t="s">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="Y23" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="Z23" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA23" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC23" t="s">
         <v>65</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>66</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s">
         <v>54</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>68</v>
       </c>
       <c r="AH23" t="s">
         <v>80</v>
       </c>
       <c r="AI23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ23" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="AL23" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="AM23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AN23" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO23" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP23" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT23">
+        <v>36050</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="AS23">
-        <v>36050</v>
-      </c>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24">
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24">
         <v>-1</v>
       </c>
-      <c r="C24" t="s">
-        <v>45</v>
-      </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E24" t="s">
         <v>46</v>
@@ -4175,114 +4242,117 @@
         <v>47</v>
       </c>
       <c r="G24" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
         <v>49</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K24">
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>500</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>6</v>
       </c>
-      <c r="M24" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" t="s">
-        <v>162</v>
-      </c>
-      <c r="S24">
-        <v>36.056905610000001</v>
+      <c r="N24" t="s">
+        <v>114</v>
+      </c>
+      <c r="S24" t="s">
+        <v>166</v>
       </c>
       <c r="T24">
-        <v>-0.29684712600000002</v>
-      </c>
-      <c r="W24" t="s">
-        <v>52</v>
+        <v>36.056905612349503</v>
+      </c>
+      <c r="U24">
+        <v>-0.29684712556032899</v>
       </c>
       <c r="X24" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="Y24" t="s">
-        <v>86</v>
+        <v>167</v>
       </c>
       <c r="Z24" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC24" t="s">
         <v>65</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>66</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG24" t="s">
         <v>54</v>
       </c>
-      <c r="AE24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>164</v>
-      </c>
       <c r="AH24" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI24" t="s">
         <v>69</v>
       </c>
-      <c r="AI24" t="s">
-        <v>89</v>
-      </c>
       <c r="AJ24" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK24" t="s">
-        <v>165</v>
+        <v>55</v>
       </c>
       <c r="AL24" t="s">
-        <v>56</v>
+        <v>169</v>
       </c>
       <c r="AM24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="AN24" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="AO24" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR24">
+        <v>722128975</v>
+      </c>
+      <c r="AT24">
+        <v>36915</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="AQ24">
-        <v>722128975</v>
-      </c>
-      <c r="AS24">
-        <v>36915</v>
-      </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25">
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25">
         <v>-1</v>
       </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" t="s">
         <v>46</v>
@@ -4291,212 +4361,218 @@
         <v>47</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
         <v>49</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>100</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>0</v>
       </c>
-      <c r="R25" t="s">
-        <v>167</v>
-      </c>
-      <c r="S25">
-        <v>36.059137550000003</v>
+      <c r="S25" t="s">
+        <v>171</v>
       </c>
       <c r="T25">
-        <v>-0.30108194100000002</v>
-      </c>
-      <c r="W25" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>64</v>
+        <v>36.059137545525999</v>
+      </c>
+      <c r="U25">
+        <v>-0.301081940667208</v>
+      </c>
+      <c r="X25" t="s">
+        <v>53</v>
       </c>
       <c r="Z25" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="AA25" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD25" t="s">
         <v>54</v>
       </c>
+      <c r="AB25" t="s">
+        <v>50</v>
+      </c>
       <c r="AE25" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="AF25" t="s">
-        <v>53</v>
+        <v>172</v>
       </c>
       <c r="AG25" t="s">
-        <v>169</v>
+        <v>54</v>
       </c>
       <c r="AH25" t="s">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="AI25" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AJ25" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="AK25" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="AL25" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="AM25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ25">
+        <v>58</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR25">
         <v>769218505</v>
       </c>
-      <c r="AS25">
+      <c r="AT25">
         <v>37809</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26">
         <v>-1</v>
       </c>
-      <c r="C26" t="s">
-        <v>45</v>
-      </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E26" t="s">
         <v>46</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I26" t="s">
         <v>49</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>3</v>
       </c>
-      <c r="M26" t="s">
-        <v>171</v>
-      </c>
-      <c r="N26">
+      <c r="N26" t="s">
+        <v>175</v>
+      </c>
+      <c r="O26">
         <v>3</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>6</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>9</v>
       </c>
-      <c r="R26" t="s">
-        <v>172</v>
-      </c>
-      <c r="S26">
-        <v>36.062076240000003</v>
+      <c r="S26" t="s">
+        <v>176</v>
       </c>
       <c r="T26">
-        <v>-0.30197812099999999</v>
-      </c>
-      <c r="W26" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>86</v>
+        <v>36.062076240777898</v>
+      </c>
+      <c r="U26">
+        <v>-0.30197812134387703</v>
+      </c>
+      <c r="X26" t="s">
+        <v>53</v>
       </c>
       <c r="Z26" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA26" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB26" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC26" t="s">
         <v>65</v>
       </c>
-      <c r="AC26" t="s">
+      <c r="AD26" t="s">
         <v>66</v>
       </c>
-      <c r="AE26" t="s">
-        <v>134</v>
-      </c>
       <c r="AF26" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="AG26" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="AH26" t="s">
         <v>80</v>
       </c>
       <c r="AI26" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ26" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AL26" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AM26" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AP26" t="s">
-        <v>104</v>
-      </c>
-      <c r="AS26">
+        <v>50</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT26">
         <v>38777</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27">
         <v>-1</v>
       </c>
-      <c r="C27" t="s">
-        <v>45</v>
-      </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
         <v>46</v>
@@ -4505,203 +4581,203 @@
         <v>47</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
-      </c>
-      <c r="J27">
+        <v>60</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
         <v>2</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0</v>
       </c>
-      <c r="Q27" t="s">
-        <v>174</v>
-      </c>
       <c r="R27" t="s">
-        <v>94</v>
-      </c>
-      <c r="S27">
-        <v>36.119335370000002</v>
+        <v>178</v>
+      </c>
+      <c r="S27" t="s">
+        <v>97</v>
       </c>
       <c r="T27">
-        <v>-0.29273736500000003</v>
-      </c>
-      <c r="W27" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>54</v>
+        <v>36.1193353682756</v>
+      </c>
+      <c r="U27">
+        <v>-0.29273736519554</v>
+      </c>
+      <c r="X27" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>123</v>
       </c>
       <c r="AB27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC27" t="s">
         <v>65</v>
       </c>
-      <c r="AC27" t="s">
+      <c r="AD27" t="s">
         <v>66</v>
       </c>
-      <c r="AD27" t="s">
-        <v>54</v>
-      </c>
       <c r="AE27" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>114</v>
+        <v>55</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>111</v>
       </c>
       <c r="AH27" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AI27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ27" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="s">
-        <v>176</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS27">
+        <v>55</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT27">
         <v>57764</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28">
         <v>-1</v>
       </c>
-      <c r="C28" t="s">
-        <v>45</v>
-      </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E28" t="s">
         <v>46</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>113</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I28" t="s">
         <v>49</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="K28">
-        <v>50</v>
-      </c>
       <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28">
         <v>3</v>
       </c>
-      <c r="M28" t="s">
-        <v>178</v>
-      </c>
-      <c r="N28">
+      <c r="N28" t="s">
+        <v>182</v>
+      </c>
+      <c r="O28">
         <v>4</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>6</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>10</v>
       </c>
-      <c r="R28" t="s">
-        <v>179</v>
-      </c>
-      <c r="S28">
-        <v>36.125124919999998</v>
+      <c r="S28" t="s">
+        <v>183</v>
       </c>
       <c r="T28">
-        <v>-0.28494430599999998</v>
-      </c>
-      <c r="W28" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>86</v>
+        <v>36.125124916434203</v>
+      </c>
+      <c r="U28">
+        <v>-0.28494430593597903</v>
+      </c>
+      <c r="X28" t="s">
+        <v>53</v>
       </c>
       <c r="Z28" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="AA28" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AB28" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC28" t="s">
         <v>65</v>
       </c>
-      <c r="AC28" t="s">
+      <c r="AD28" t="s">
         <v>66</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG28" t="s">
         <v>54</v>
       </c>
-      <c r="AE28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>120</v>
-      </c>
       <c r="AH28" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AI28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ28" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK28" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AL28" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AM28" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS28">
+        <v>58</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AT28">
         <v>59677</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29">
         <v>-1</v>
       </c>
-      <c r="C29" t="s">
-        <v>45</v>
-      </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E29" t="s">
         <v>46</v>
@@ -4710,117 +4786,117 @@
         <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
         <v>49</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>100</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>6</v>
       </c>
-      <c r="M29" t="s">
-        <v>181</v>
-      </c>
-      <c r="N29">
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29">
         <v>10</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>8</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>18</v>
       </c>
-      <c r="R29" t="s">
-        <v>182</v>
-      </c>
-      <c r="S29">
-        <v>36.126808339999997</v>
+      <c r="S29" t="s">
+        <v>186</v>
       </c>
       <c r="T29">
-        <v>-0.26478237300000002</v>
-      </c>
-      <c r="W29" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>54</v>
+        <v>36.126808337867203</v>
+      </c>
+      <c r="U29">
+        <v>-0.26478237287864997</v>
+      </c>
+      <c r="X29" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>78</v>
       </c>
       <c r="AB29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC29" t="s">
         <v>65</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>66</v>
       </c>
-      <c r="AD29" t="s">
-        <v>54</v>
-      </c>
       <c r="AE29" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="AF29" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="AG29" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="AH29" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="AI29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AJ29" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK29" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="AL29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AM29" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO29" t="s">
-        <v>49</v>
+        <v>106</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>55</v>
       </c>
       <c r="AP29" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ29">
+        <v>50</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR29">
         <v>724264637</v>
       </c>
-      <c r="AR29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AS29">
+      <c r="AS29" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT29">
         <v>60235</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>184</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30">
         <v>-1</v>
       </c>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
         <v>46</v>
@@ -4829,91 +4905,95 @@
         <v>47</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
         <v>49</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>50</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>40</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>0</v>
       </c>
-      <c r="Q30" t="s">
-        <v>185</v>
-      </c>
       <c r="R30" t="s">
-        <v>186</v>
-      </c>
-      <c r="S30">
-        <v>36.164887989999997</v>
+        <v>189</v>
+      </c>
+      <c r="S30" t="s">
+        <v>190</v>
       </c>
       <c r="T30">
-        <v>-0.27119747599999999</v>
-      </c>
-      <c r="V30" t="s">
-        <v>187</v>
+        <v>36.164887994527803</v>
+      </c>
+      <c r="U30">
+        <v>-0.27119747611380302</v>
       </c>
       <c r="W30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>54</v>
+        <v>191</v>
+      </c>
+      <c r="X30" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>64</v>
       </c>
       <c r="AB30" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC30" t="s">
         <v>65</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>66</v>
       </c>
-      <c r="AE30" t="s">
-        <v>188</v>
-      </c>
       <c r="AF30" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AG30" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="AH30" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="AI30" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="AJ30" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="AK30" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AL30" t="s">
-        <v>56</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO30" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>55</v>
       </c>
       <c r="AP30" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS30">
+        <v>50</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT30">
         <v>76472</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>